--- a/latex/performance_content/scaling/ItascaWeakScaling.xlsx
+++ b/latex/performance_content/scaling/ItascaWeakScaling.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="11">
   <si>
     <t>p</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Comm - SpMV</t>
+  </si>
+  <si>
+    <t>(Comm-SpMV)/Total</t>
   </si>
 </sst>
 </file>
@@ -117,9 +123,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="80">
+  <cellStyleXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -204,7 +214,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="80">
+  <cellStyles count="84">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -244,6 +254,8 @@
     <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -283,6 +295,8 @@
     <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1396,6 +1410,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1899,6 +1914,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1934,6 +1950,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1947,6 +1964,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2402,7 +2420,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD27"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2819,7 +2837,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2838,8 +2856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:C38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4086,15 +4104,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4356,7 +4375,7 @@
         <v>0.2646</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>4</v>
       </c>
@@ -4367,7 +4386,7 @@
         <v>0.33439999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>8</v>
       </c>
@@ -4377,8 +4396,14 @@
       <c r="C18">
         <v>0.59092500000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>16</v>
       </c>
@@ -4388,8 +4413,16 @@
       <c r="C19">
         <v>0.62112500000000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="G19">
+        <f>C28-C15</f>
+        <v>-1.1999999999999789E-3</v>
+      </c>
+      <c r="H19" s="2">
+        <f>G19/C2</f>
+        <v>-4.7281323877067724E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>32</v>
       </c>
@@ -4399,8 +4432,16 @@
       <c r="C20">
         <v>0.65329400000000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="G20">
+        <f>C29-C16</f>
+        <v>4.149999999999987E-3</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" ref="H20:H29" si="2">G20/C3</f>
+        <v>1.4377273514637058E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>64</v>
       </c>
@@ -4410,8 +4451,16 @@
       <c r="C21">
         <v>0.64293800000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="G21">
+        <f>C30-C17</f>
+        <v>9.000000000000119E-4</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="2"/>
+        <v>2.4175676583171363E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>128</v>
       </c>
@@ -4421,8 +4470,16 @@
       <c r="C22">
         <v>0.81588099999999997</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="G22">
+        <f>C31-C18</f>
+        <v>-2.1738000000000035E-2</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="2"/>
+        <v>-3.1969433585994564E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>256</v>
       </c>
@@ -4432,8 +4489,16 @@
       <c r="C23">
         <v>0.90481900000000004</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="G23">
+        <f>C32-C19</f>
+        <v>-4.7681000000000084E-2</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="2"/>
+        <v>-6.4097014604349162E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>512</v>
       </c>
@@ -4443,8 +4508,16 @@
       <c r="C24">
         <v>0.95230499999999996</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="G24">
+        <f>C33-C20</f>
+        <v>-4.9219000000000013E-2</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="2"/>
+        <v>-6.1549754771390928E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>1024</v>
       </c>
@@ -4454,8 +4527,26 @@
       <c r="C25">
         <v>1.41822</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="G25">
+        <f>C34-C21</f>
+        <v>-5.4985000000000062E-2</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="2"/>
+        <v>-6.8454522592420214E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="G26">
+        <f>C35-C22</f>
+        <v>-3.6544000000000021E-2</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="2"/>
+        <v>-3.6133880456815169E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -4465,8 +4556,16 @@
       <c r="C27" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="G27">
+        <f>C36-C23</f>
+        <v>7.7205999999999997E-2</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="2"/>
+        <v>6.2125625633680417E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>1</v>
       </c>
@@ -4476,8 +4575,16 @@
       <c r="C28">
         <v>0.25040000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="G28">
+        <f>C37-C24</f>
+        <v>0.21942499999999998</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15173360440350731</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>2</v>
       </c>
@@ -4487,8 +4594,16 @@
       <c r="C29">
         <v>0.26874999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="G29">
+        <f>C38-C25</f>
+        <v>0.22294999999999998</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="2"/>
+        <v>0.11627906976744184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>4</v>
       </c>
@@ -4499,7 +4614,7 @@
         <v>0.33529999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>8</v>
       </c>
@@ -4510,7 +4625,7 @@
         <v>0.569187</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>16</v>
       </c>
@@ -4602,7 +4717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -6104,8 +6219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/latex/performance_content/scaling/ItascaWeakScaling.xlsx
+++ b/latex/performance_content/scaling/ItascaWeakScaling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="14500" tabRatio="500" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="1420" yWindow="0" windowWidth="25120" windowHeight="14920" tabRatio="500" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="n50_weak_alltoallv" sheetId="6" r:id="rId1"/>
@@ -325,28 +325,74 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000"/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2000"/>
-              <a:t>Weak Scaling </a:t>
+              <a:t>Weak Scaling,</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Np = 4000 points</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000"/>
           </a:p>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000"/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2000"/>
               <a:t>SpMV + MPI (Isend/Irecv Overlap CPU) on Itasca </a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="en-US" sz="2000"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000"/>
-              <a:t>Np = 4000 points</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -854,28 +900,74 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000"/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2000"/>
-              <a:t>Weak Scaling Efficiency </a:t>
+              <a:t>Weak Scaling Efficiency,</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Np = 4000 points</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000"/>
           </a:p>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000"/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2000"/>
               <a:t>SpMV + MPI (Isend/Irecv Overlap CPU) on Itasca </a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="en-US" sz="2000"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000"/>
-              <a:t>Np = 4000 points</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1320,7 +1412,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Efficiency</a:t>
+                  <a:t>Efficiency (t_1/t_p)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1384,28 +1476,70 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000"/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2000"/>
-              <a:t>Weak Scaling Comparison</a:t>
+              <a:t>Weak Scaling Comparison, </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Np = 4000 points</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000"/>
           </a:p>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000"/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2000"/>
               <a:t>SpMV + MPI on Itasca </a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="en-US" sz="2000"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000"/>
-              <a:t>Np = 4000 points</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2837,7 +2971,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3690,7 +3824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A38" sqref="A38:C38"/>
     </sheetView>
   </sheetViews>
@@ -4717,7 +4851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -6219,8 +6353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/latex/performance_content/scaling/ItascaWeakScaling.xlsx
+++ b/latex/performance_content/scaling/ItascaWeakScaling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="0" windowWidth="25120" windowHeight="14920" tabRatio="500" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26540" windowHeight="14920" tabRatio="500" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="n50_weak_alltoallv" sheetId="6" r:id="rId1"/>
@@ -123,9 +123,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="84">
+  <cellStyleXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -214,7 +224,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="84">
+  <cellStyles count="94">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -256,6 +266,11 @@
     <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -297,6 +312,11 @@
     <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -325,70 +345,17 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2000"/>
-              <a:t>Weak Scaling,</a:t>
+              <a:t>Weak Scaling, Np = 4000 points</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Np = 4000 points</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="2000"/>
           </a:p>
           <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2000"/>
@@ -867,7 +834,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1400"/>
+        <a:defRPr sz="1800"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -900,73 +867,20 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1800"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000"/>
-              <a:t>Weak Scaling Efficiency,</a:t>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Weak Scaling Efficiency, Np = 4000 points</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Np = 4000 points</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="2000"/>
           </a:p>
           <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1800"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000"/>
+              <a:rPr lang="en-US" sz="1800"/>
               <a:t>SpMV + MPI (Isend/Irecv Overlap CPU) on Itasca </a:t>
             </a:r>
           </a:p>
@@ -1412,7 +1326,23 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Efficiency (t_1/t_p)</a:t>
+                  <a:t>Efficiency (t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="-25000"/>
+                  <a:t>1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>/t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="-25000"/>
+                  <a:t>p</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1443,7 +1373,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1400"/>
+        <a:defRPr sz="1800"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1476,66 +1406,17 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2000"/>
-              <a:t>Weak Scaling Comparison, </a:t>
+              <a:t>Weak Scaling Comparison, Np = 4000 points</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Np = 4000 points</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="2000"/>
           </a:p>
           <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2000"/>
@@ -2100,6 +1981,16 @@
       <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -2110,7 +2001,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1400"/>
+        <a:defRPr sz="1800"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2970,8 +2861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4240,8 +4131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4250,7 +4141,7 @@
     <col min="8" max="8" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4266,8 +4157,9 @@
       <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4285,8 +4177,9 @@
         <f>D2*100%</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4297,15 +4190,15 @@
         <v>0.28865000000000002</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D12" si="0">$C$2/$C3</f>
+        <f t="shared" ref="D3:F12" si="0">$C$2/$C3</f>
         <v>0.87926554650961375</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E12" si="1">D3*100%</f>
+        <f t="shared" ref="E3:F12" si="1">D3*100%</f>
         <v>0.87926554650961375</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>4</v>
       </c>
@@ -4324,7 +4217,7 @@
         <v>0.68175407964542345</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -4343,7 +4236,7 @@
         <v>0.37325615254970135</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>16</v>
       </c>
@@ -4362,7 +4255,7 @@
         <v>0.34118039274729534</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>32</v>
       </c>
@@ -4381,7 +4274,7 @@
         <v>0.31738409478004459</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>64</v>
       </c>
@@ -4400,7 +4293,7 @@
         <v>0.31597268043932408</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>128</v>
       </c>
@@ -4419,7 +4312,7 @@
         <v>0.25095169822514463</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>256</v>
       </c>
@@ -4438,7 +4331,7 @@
         <v>0.20422614545278983</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>512</v>
       </c>
@@ -4457,7 +4350,7 @@
         <v>0.17550410754294252</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>1024</v>
       </c>
@@ -4476,7 +4369,7 @@
         <v>0.13236881770341666</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -4487,7 +4380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>1</v>
       </c>
@@ -4498,7 +4391,7 @@
         <v>0.25159999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>2</v>
       </c>
@@ -6353,8 +6246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/latex/performance_content/scaling/ItascaWeakScaling.xlsx
+++ b/latex/performance_content/scaling/ItascaWeakScaling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26540" windowHeight="14920" tabRatio="500" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26540" windowHeight="14920" tabRatio="500" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="n50_weak_alltoallv" sheetId="6" r:id="rId1"/>
@@ -788,6 +788,7 @@
         <c:axId val="-2086725912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2861,7 +2862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -6246,7 +6247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>

--- a/latex/performance_content/scaling/ItascaWeakScaling.xlsx
+++ b/latex/performance_content/scaling/ItascaWeakScaling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26540" windowHeight="14920" tabRatio="500" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26540" windowHeight="14920" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="n50_weak_alltoallv" sheetId="6" r:id="rId1"/>
@@ -123,9 +123,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="94">
+  <cellStyleXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -224,7 +230,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="94">
+  <cellStyles count="100">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -271,6 +277,9 @@
     <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -317,6 +326,9 @@
     <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -746,11 +758,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2086193304"/>
-        <c:axId val="-2086725912"/>
+        <c:axId val="-2101594008"/>
+        <c:axId val="-2094093704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2086193304"/>
+        <c:axId val="-2101594008"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -780,12 +792,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2086725912"/>
+        <c:crossAx val="-2094093704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2086725912"/>
+        <c:axId val="-2094093704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0"/>
@@ -816,7 +828,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2086193304"/>
+        <c:crossAx val="-2101594008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1269,11 +1281,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2091117080"/>
-        <c:axId val="-2093794344"/>
+        <c:axId val="2126101240"/>
+        <c:axId val="-2094961704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2091117080"/>
+        <c:axId val="2126101240"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1303,12 +1315,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2093794344"/>
+        <c:crossAx val="-2094961704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2093794344"/>
+        <c:axId val="-2094961704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1355,7 +1367,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091117080"/>
+        <c:crossAx val="2126101240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1426,7 +1438,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1903,11 +1914,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2079950056"/>
-        <c:axId val="2110841400"/>
+        <c:axId val="-2035956616"/>
+        <c:axId val="-2094109992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2079950056"/>
+        <c:axId val="-2035956616"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1930,19 +1941,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110841400"/>
+        <c:crossAx val="-2094109992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2110841400"/>
+        <c:axId val="-2094109992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0"/>
@@ -1966,21 +1976,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2079950056"/>
+        <c:crossAx val="-2035956616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4132,8 +4140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4191,11 +4199,11 @@
         <v>0.28865000000000002</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:F12" si="0">$C$2/$C3</f>
+        <f t="shared" ref="D3:D12" si="0">$C$2/$C3</f>
         <v>0.87926554650961375</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:F12" si="1">D3*100%</f>
+        <f t="shared" ref="E3:E12" si="1">D3*100%</f>
         <v>0.87926554650961375</v>
       </c>
     </row>
@@ -4442,7 +4450,7 @@
         <v>0.62112500000000004</v>
       </c>
       <c r="G19">
-        <f>C28-C15</f>
+        <f t="shared" ref="G19:G29" si="2">C28-C15</f>
         <v>-1.1999999999999789E-3</v>
       </c>
       <c r="H19" s="2">
@@ -4461,11 +4469,11 @@
         <v>0.65329400000000004</v>
       </c>
       <c r="G20">
-        <f>C29-C16</f>
+        <f t="shared" si="2"/>
         <v>4.149999999999987E-3</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" ref="H20:H29" si="2">G20/C3</f>
+        <f t="shared" ref="H20:H29" si="3">G20/C3</f>
         <v>1.4377273514637058E-2</v>
       </c>
     </row>
@@ -4480,11 +4488,11 @@
         <v>0.64293800000000001</v>
       </c>
       <c r="G21">
-        <f>C30-C17</f>
+        <f t="shared" si="2"/>
         <v>9.000000000000119E-4</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4175676583171363E-3</v>
       </c>
     </row>
@@ -4499,11 +4507,11 @@
         <v>0.81588099999999997</v>
       </c>
       <c r="G22">
-        <f>C31-C18</f>
+        <f t="shared" si="2"/>
         <v>-2.1738000000000035E-2</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1969433585994564E-2</v>
       </c>
     </row>
@@ -4518,11 +4526,11 @@
         <v>0.90481900000000004</v>
       </c>
       <c r="G23">
-        <f>C32-C19</f>
+        <f t="shared" si="2"/>
         <v>-4.7681000000000084E-2</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6.4097014604349162E-2</v>
       </c>
     </row>
@@ -4537,11 +4545,11 @@
         <v>0.95230499999999996</v>
       </c>
       <c r="G24">
-        <f>C33-C20</f>
+        <f t="shared" si="2"/>
         <v>-4.9219000000000013E-2</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6.1549754771390928E-2</v>
       </c>
     </row>
@@ -4556,21 +4564,21 @@
         <v>1.41822</v>
       </c>
       <c r="G25">
-        <f>C34-C21</f>
+        <f t="shared" si="2"/>
         <v>-5.4985000000000062E-2</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6.8454522592420214E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="G26">
-        <f>C35-C22</f>
+        <f t="shared" si="2"/>
         <v>-3.6544000000000021E-2</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.6133880456815169E-2</v>
       </c>
     </row>
@@ -4585,11 +4593,11 @@
         <v>4</v>
       </c>
       <c r="G27">
-        <f>C36-C23</f>
+        <f t="shared" si="2"/>
         <v>7.7205999999999997E-2</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.2125625633680417E-2</v>
       </c>
     </row>
@@ -4604,11 +4612,11 @@
         <v>0.25040000000000001</v>
       </c>
       <c r="G28">
-        <f>C37-C24</f>
+        <f t="shared" si="2"/>
         <v>0.21942499999999998</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15173360440350731</v>
       </c>
     </row>
@@ -4623,11 +4631,11 @@
         <v>0.26874999999999999</v>
       </c>
       <c r="G29">
-        <f>C38-C25</f>
+        <f t="shared" si="2"/>
         <v>0.22294999999999998</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11627906976744184</v>
       </c>
     </row>
@@ -6247,7 +6255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>

--- a/latex/performance_content/scaling/ItascaWeakScaling.xlsx
+++ b/latex/performance_content/scaling/ItascaWeakScaling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26540" windowHeight="14920" tabRatio="500" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="50420" windowHeight="28360" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="n50_weak_alltoallv" sheetId="6" r:id="rId1"/>
@@ -376,7 +376,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -758,11 +757,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2101594008"/>
-        <c:axId val="-2094093704"/>
+        <c:axId val="2110726824"/>
+        <c:axId val="2125334632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2101594008"/>
+        <c:axId val="2110726824"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -785,19 +784,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094093704"/>
+        <c:crossAx val="2125334632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2094093704"/>
+        <c:axId val="2125334632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0"/>
@@ -821,21 +819,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101594008"/>
+        <c:crossAx val="2110726824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -899,7 +895,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1281,11 +1276,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2126101240"/>
-        <c:axId val="-2094961704"/>
+        <c:axId val="2122438824"/>
+        <c:axId val="-2102946776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2126101240"/>
+        <c:axId val="2122438824"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1308,19 +1303,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094961704"/>
+        <c:crossAx val="-2102946776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2094961704"/>
+        <c:axId val="-2102946776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1360,21 +1354,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126101240"/>
+        <c:crossAx val="2122438824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1914,11 +1906,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2035956616"/>
-        <c:axId val="-2094109992"/>
+        <c:axId val="2110419240"/>
+        <c:axId val="2111684776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2035956616"/>
+        <c:axId val="2110419240"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1947,12 +1939,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094109992"/>
+        <c:crossAx val="2111684776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2094109992"/>
+        <c:axId val="2111684776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0"/>
@@ -1982,7 +1974,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2035956616"/>
+        <c:crossAx val="2110419240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4141,7 +4133,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="N11" activeCellId="1" sqref="G6 N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4150,7 +4142,7 @@
     <col min="8" max="8" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4168,7 +4160,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4188,7 +4180,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4207,7 +4199,7 @@
         <v>0.87926554650961375</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>4</v>
       </c>
@@ -4226,7 +4218,7 @@
         <v>0.68175407964542345</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>8</v>
       </c>
@@ -4244,8 +4236,12 @@
         <f t="shared" si="1"/>
         <v>0.37325615254970135</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <f>n50_weak_alltoallv!C12/n50_weak_overlap_cpu!C12</f>
+        <v>2.7952038469361677</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>16</v>
       </c>
@@ -4264,7 +4260,7 @@
         <v>0.34118039274729534</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>32</v>
       </c>
@@ -4283,7 +4279,7 @@
         <v>0.31738409478004459</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>64</v>
       </c>
@@ -4302,7 +4298,7 @@
         <v>0.31597268043932408</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>128</v>
       </c>
@@ -4321,7 +4317,7 @@
         <v>0.25095169822514463</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>256</v>
       </c>
@@ -4340,7 +4336,7 @@
         <v>0.20422614545278983</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>512</v>
       </c>
@@ -4359,7 +4355,7 @@
         <v>0.17550410754294252</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>1024</v>
       </c>
@@ -4378,7 +4374,7 @@
         <v>0.13236881770341666</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -4389,7 +4385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>1</v>
       </c>
@@ -4400,7 +4396,7 @@
         <v>0.25159999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>2</v>
       </c>

--- a/latex/performance_content/scaling/ItascaWeakScaling.xlsx
+++ b/latex/performance_content/scaling/ItascaWeakScaling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="50420" windowHeight="28360" tabRatio="500" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14420" tabRatio="500" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="n50_weak_alltoallv" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="16">
   <si>
     <t>p</t>
   </si>
@@ -61,6 +61,21 @@
   </si>
   <si>
     <t>(Comm-SpMV)/Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduction </t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>SpmV Q\B Only</t>
+  </si>
+  <si>
+    <t>SpMV Q\B Only</t>
+  </si>
+  <si>
+    <t>Visible Communication</t>
   </si>
 </sst>
 </file>
@@ -123,9 +138,49 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="100">
+  <cellStyleXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -230,7 +285,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="100">
+  <cellStyles count="140">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -280,6 +335,26 @@
     <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -329,6 +404,26 @@
     <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -376,6 +471,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -757,11 +853,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2110726824"/>
-        <c:axId val="2125334632"/>
+        <c:axId val="2126945352"/>
+        <c:axId val="2126950936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2110726824"/>
+        <c:axId val="2126945352"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -784,18 +880,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125334632"/>
+        <c:crossAx val="2126950936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2125334632"/>
+        <c:axId val="2126950936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0"/>
@@ -819,19 +916,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110726824"/>
+        <c:crossAx val="2126945352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -895,6 +994,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1276,11 +1376,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2122438824"/>
-        <c:axId val="-2102946776"/>
+        <c:axId val="2123582872"/>
+        <c:axId val="2123577288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2122438824"/>
+        <c:axId val="2123582872"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1303,18 +1403,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2102946776"/>
+        <c:crossAx val="2123577288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2102946776"/>
+        <c:axId val="2123577288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1354,19 +1455,22 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122438824"/>
+        <c:crossAx val="2123582872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1416,6 +1520,543 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Weak Scaling, Np = 4000 points</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Visible </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t>Comm Time w.r.t. Total SpMV </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>on Itasca </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>n=17</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n17_weak_overlap_cpu!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n17_weak_overlap_cpu!$E$41:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0200956937799042</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0233333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0231850117096018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29084777299686</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37753712028334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.445093357116143</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4988952256803</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58303549769548</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.788312554979222</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.807230467175299</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.854213674090209</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>n=31</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n17_weak_overlap_cpu!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n31_weak_overlap_cpu!$E$41:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0133418043202034</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.112167832167832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.132982540062186</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.232112108535672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.314104890107811</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.371679462533461</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.412395173067947</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.550616273464341</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.636938208890276</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.775853035853036</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.799568126840555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>n=50</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n17_weak_overlap_cpu!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n50_weak_overlap_cpu!$E$41:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.00985027580772262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.113285986488827</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.177086830971728</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.197141899106126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.259842879573269</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.328396247414533</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.328342674737374</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.468843624857863</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57655905499139</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.639435869775675</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.731934889979503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>n=101</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>n17_weak_overlap_cpu!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>n101_weak_overlap_cpu!$E$41:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.00600037502343893</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0794110137032939</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.138938315539739</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13132371082179</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.232707061326606</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.253023077607263</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.280019308875425</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36479825672971</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.483147027202168</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.566062125621111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2147022200"/>
+        <c:axId val="2132338120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2147022200"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Process Count (8 ppn)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2132338120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2132338120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>%</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Total Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2147022200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
               <a:t>Weak Scaling Comparison, Np = 4000 points</a:t>
             </a:r>
           </a:p>
@@ -1430,6 +2071,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1906,11 +2548,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2110419240"/>
-        <c:axId val="2111684776"/>
+        <c:axId val="2126864840"/>
+        <c:axId val="2120509064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2110419240"/>
+        <c:axId val="2126864840"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1933,18 +2575,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111684776"/>
+        <c:crossAx val="2120509064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2111684776"/>
+        <c:axId val="2120509064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0"/>
@@ -1968,19 +2611,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110419240"/>
+        <c:crossAx val="2126864840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2076,6 +2721,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>3464</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2862,8 +3539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4130,10 +4807,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" activeCellId="1" sqref="G6 N11"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4142,7 +4819,7 @@
     <col min="8" max="8" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4159,8 +4836,11 @@
         <v>8</v>
       </c>
       <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4179,8 +4859,16 @@
         <v>1</v>
       </c>
       <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <f>n50_weak_overlap_cpu!C2/n50_weak_no_decode!C2</f>
+        <v>1.0147940823670534</v>
+      </c>
+      <c r="I2" s="2">
+        <f>H2/n50_weak_no_decode!C2</f>
+        <v>4.0575533081449553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4198,8 +4886,16 @@
         <f t="shared" ref="E3:E12" si="1">D3*100%</f>
         <v>0.87926554650961375</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <f>n50_weak_overlap_cpu!C3/n50_weak_no_decode!C3</f>
+        <v>1.010148731408574</v>
+      </c>
+      <c r="I3" s="2">
+        <f>H3/n50_weak_no_decode!C3</f>
+        <v>3.535078675095622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>4</v>
       </c>
@@ -4217,8 +4913,16 @@
         <f t="shared" si="1"/>
         <v>0.68175407964542345</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <f>n50_weak_overlap_cpu!C4/n50_weak_no_decode!C4</f>
+        <v>1.0242107435174359</v>
+      </c>
+      <c r="I4" s="2">
+        <f>H4/n50_weak_no_decode!C4</f>
+        <v>2.8178299567162415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>8</v>
       </c>
@@ -4240,8 +4944,16 @@
         <f>n50_weak_alltoallv!C12/n50_weak_overlap_cpu!C12</f>
         <v>2.7952038469361677</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <f>n50_weak_overlap_cpu!C5/n50_weak_no_decode!C5</f>
+        <v>0.98102618187799095</v>
+      </c>
+      <c r="I5" s="2">
+        <f>H5/n50_weak_no_decode!C5</f>
+        <v>1.4153914035344757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>16</v>
       </c>
@@ -4259,8 +4971,16 @@
         <f t="shared" si="1"/>
         <v>0.34118039274729534</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <f>n50_weak_overlap_cpu!C6/n50_weak_no_decode!C6</f>
+        <v>0.95434491163924429</v>
+      </c>
+      <c r="I6" s="2">
+        <f>H6/n50_weak_no_decode!C6</f>
+        <v>1.2243431946364467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>32</v>
       </c>
@@ -4278,8 +4998,16 @@
         <f t="shared" si="1"/>
         <v>0.31738409478004459</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <f>n50_weak_overlap_cpu!C7/n50_weak_no_decode!C7</f>
+        <v>0.97499305023824268</v>
+      </c>
+      <c r="I7" s="2">
+        <f>H7/n50_weak_no_decode!C7</f>
+        <v>1.1887665638893339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>64</v>
       </c>
@@ -4297,8 +5025,16 @@
         <f t="shared" si="1"/>
         <v>0.31597268043932408</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <f>n50_weak_overlap_cpu!C8/n50_weak_no_decode!C8</f>
+        <v>0.90396356388755394</v>
+      </c>
+      <c r="I8" s="2">
+        <f>H8/n50_weak_no_decode!C8</f>
+        <v>1.0173251192507886</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>128</v>
       </c>
@@ -4316,8 +5052,16 @@
         <f t="shared" si="1"/>
         <v>0.25095169822514463</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <f>n50_weak_overlap_cpu!C9/n50_weak_no_decode!C9</f>
+        <v>0.91690843155031732</v>
+      </c>
+      <c r="I9" s="2">
+        <f>H9/n50_weak_no_decode!C9</f>
+        <v>0.83128597602023335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>256</v>
       </c>
@@ -4335,8 +5079,16 @@
         <f t="shared" si="1"/>
         <v>0.20422614545278983</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <f>n50_weak_overlap_cpu!C10/n50_weak_no_decode!C10</f>
+        <v>0.84022852506676582</v>
+      </c>
+      <c r="I10" s="2">
+        <f>H10/n50_weak_no_decode!C10</f>
+        <v>0.56808662659596754</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>512</v>
       </c>
@@ -4354,8 +5106,16 @@
         <f t="shared" si="1"/>
         <v>0.17550410754294252</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <f>n50_weak_overlap_cpu!C11/n50_weak_no_decode!C11</f>
+        <v>0.72305638471807643</v>
+      </c>
+      <c r="I11" s="2">
+        <f>H11/n50_weak_no_decode!C11</f>
+        <v>0.36152638472711457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>1024</v>
       </c>
@@ -4373,8 +5133,16 @@
         <f t="shared" si="1"/>
         <v>0.13236881770341666</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H12">
+        <f>n50_weak_overlap_cpu!C12/n50_weak_no_decode!C12</f>
+        <v>0.84854399008674108</v>
+      </c>
+      <c r="I12" s="2">
+        <f>H12/n50_weak_no_decode!C12</f>
+        <v>0.37552840772116353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -4385,7 +5153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>1</v>
       </c>
@@ -4396,7 +5164,7 @@
         <v>0.25159999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>2</v>
       </c>
@@ -4668,7 +5436,7 @@
         <v>0.57344399999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4679,7 +5447,7 @@
         <v>0.60407500000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>64</v>
       </c>
@@ -4690,7 +5458,7 @@
         <v>0.58795299999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>128</v>
       </c>
@@ -4701,7 +5469,7 @@
         <v>0.77933699999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>256</v>
       </c>
@@ -4712,7 +5480,7 @@
         <v>0.98202500000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>512</v>
       </c>
@@ -4723,7 +5491,7 @@
         <v>1.1717299999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>1024</v>
       </c>
@@ -4732,6 +5500,185 @@
       </c>
       <c r="C38">
         <v>1.64117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>4000</v>
+      </c>
+      <c r="C41">
+        <v>0.24790000000000001</v>
+      </c>
+      <c r="E41" s="2">
+        <f>($C28-$C41)/$C2</f>
+        <v>9.8502758077226235E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>8000</v>
+      </c>
+      <c r="C42">
+        <v>0.23605000000000001</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" ref="E42:E51" si="4">($C29-$C42)/$C3</f>
+        <v>0.11328598648882722</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>16000</v>
+      </c>
+      <c r="C43">
+        <v>0.26937499999999998</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="4"/>
+        <v>0.17708683097172792</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>32000</v>
+      </c>
+      <c r="C44">
+        <v>0.43513800000000002</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="4"/>
+        <v>0.19714189910612651</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>16</v>
+      </c>
+      <c r="B45">
+        <v>64000</v>
+      </c>
+      <c r="C45">
+        <v>0.38014999999999999</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="4"/>
+        <v>0.25984287957326907</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>32</v>
+      </c>
+      <c r="B46">
+        <v>128000</v>
+      </c>
+      <c r="C46">
+        <v>0.34146900000000002</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="4"/>
+        <v>0.32839624741453266</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>64</v>
+      </c>
+      <c r="B47">
+        <v>256000</v>
+      </c>
+      <c r="C47">
+        <v>0.32421699999999998</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="4"/>
+        <v>0.32834267473737411</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>128</v>
+      </c>
+      <c r="B48">
+        <v>512000</v>
+      </c>
+      <c r="C48">
+        <v>0.305172</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="4"/>
+        <v>0.46884362485786324</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>256</v>
+      </c>
+      <c r="B49">
+        <v>1024000</v>
+      </c>
+      <c r="C49">
+        <v>0.26551200000000003</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="4"/>
+        <v>0.57655905499138993</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>512</v>
+      </c>
+      <c r="B50">
+        <v>2048000</v>
+      </c>
+      <c r="C50">
+        <v>0.247029</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="4"/>
+        <v>0.63943586977567557</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>1024</v>
+      </c>
+      <c r="B51">
+        <v>4096000</v>
+      </c>
+      <c r="C51">
+        <v>0.23777999999999999</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="4"/>
+        <v>0.73193488997950307</v>
       </c>
     </row>
   </sheetData>
@@ -4747,10 +5694,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5179,7 +6126,7 @@
         <v>0.21595600000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5190,7 +6137,7 @@
         <v>0.237009</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>64</v>
       </c>
@@ -5201,7 +6148,7 @@
         <v>0.26271600000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>128</v>
       </c>
@@ -5212,7 +6159,7 @@
         <v>0.32302999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>256</v>
       </c>
@@ -5223,7 +6170,7 @@
         <v>0.67019300000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>512</v>
       </c>
@@ -5234,7 +6181,7 @@
         <v>0.74461100000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>1024</v>
       </c>
@@ -5243,6 +6190,185 @@
       </c>
       <c r="C38">
         <v>1.00457</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>4000</v>
+      </c>
+      <c r="C41">
+        <v>9.9900000000000003E-2</v>
+      </c>
+      <c r="E41" s="2">
+        <f>($C28-$C41)/$C2</f>
+        <v>2.0095693779904219E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>8000</v>
+      </c>
+      <c r="C42">
+        <v>0.10005</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" ref="E42:E51" si="2">($C29-$C42)/$C3</f>
+        <v>2.3333333333333275E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>16000</v>
+      </c>
+      <c r="C43">
+        <v>0.101775</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="2"/>
+        <v>2.3185011709601789E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>32000</v>
+      </c>
+      <c r="C44">
+        <v>0.12675</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="2"/>
+        <v>0.2908477729968601</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>16</v>
+      </c>
+      <c r="B45">
+        <v>64000</v>
+      </c>
+      <c r="C45">
+        <v>0.121725</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="2"/>
+        <v>0.37753712028334019</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>32</v>
+      </c>
+      <c r="B46">
+        <v>128000</v>
+      </c>
+      <c r="C46">
+        <v>0.11324099999999999</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="2"/>
+        <v>0.44509335711614262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>64</v>
+      </c>
+      <c r="B47">
+        <v>256000</v>
+      </c>
+      <c r="C47">
+        <v>0.10963000000000001</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="2"/>
+        <v>0.49889522568029981</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>128</v>
+      </c>
+      <c r="B48">
+        <v>512000</v>
+      </c>
+      <c r="C48">
+        <v>0.10671799999999999</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="2"/>
+        <v>0.58303549769547991</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>256</v>
+      </c>
+      <c r="B49">
+        <v>1024000</v>
+      </c>
+      <c r="C49">
+        <v>9.8450399999999993E-2</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="2"/>
+        <v>0.78831255497922181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>512</v>
+      </c>
+      <c r="B50">
+        <v>2048000</v>
+      </c>
+      <c r="C50">
+        <v>9.5820500000000003E-2</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="2"/>
+        <v>0.807230467175299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>1024</v>
+      </c>
+      <c r="B51">
+        <v>4096000</v>
+      </c>
+      <c r="C51">
+        <v>9.4764100000000004E-2</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="2"/>
+        <v>0.8542136740902091</v>
       </c>
     </row>
   </sheetData>
@@ -5258,10 +6384,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E12"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5690,7 +6816,7 @@
         <v>0.36333100000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5701,7 +6827,7 @@
         <v>0.39614700000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>64</v>
       </c>
@@ -5712,7 +6838,7 @@
         <v>0.41993000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>128</v>
       </c>
@@ -5723,7 +6849,7 @@
         <v>0.568573</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>256</v>
       </c>
@@ -5734,7 +6860,7 @@
         <v>0.71331199999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>512</v>
       </c>
@@ -5745,7 +6871,7 @@
         <v>1.21275</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>1024</v>
       </c>
@@ -5754,6 +6880,185 @@
       </c>
       <c r="C38">
         <v>1.3786</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>4000</v>
+      </c>
+      <c r="C41">
+        <v>0.15279999999999999</v>
+      </c>
+      <c r="E41" s="2">
+        <f>($C28-$C41)/$C2</f>
+        <v>1.334180432020342E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>8000</v>
+      </c>
+      <c r="C42">
+        <v>0.15154999999999999</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" ref="E42:E51" si="2">($C29-$C42)/$C3</f>
+        <v>0.11216783216783224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>16000</v>
+      </c>
+      <c r="C43">
+        <v>0.16972499999999999</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="2"/>
+        <v>0.13298254006218616</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>32000</v>
+      </c>
+      <c r="C44">
+        <v>0.25805</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="2"/>
+        <v>0.23211210853567163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>16</v>
+      </c>
+      <c r="B45">
+        <v>64000</v>
+      </c>
+      <c r="C45">
+        <v>0.22223100000000001</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="2"/>
+        <v>0.31410489010781079</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>32</v>
+      </c>
+      <c r="B46">
+        <v>128000</v>
+      </c>
+      <c r="C46">
+        <v>0.210925</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="2"/>
+        <v>0.37167946253346129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>64</v>
+      </c>
+      <c r="B47">
+        <v>256000</v>
+      </c>
+      <c r="C47">
+        <v>0.20080300000000001</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="2"/>
+        <v>0.41239517306794743</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>128</v>
+      </c>
+      <c r="B48">
+        <v>512000</v>
+      </c>
+      <c r="C48">
+        <v>0.19050500000000001</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="2"/>
+        <v>0.55061627346434083</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>256</v>
+      </c>
+      <c r="B49">
+        <v>1024000</v>
+      </c>
+      <c r="C49">
+        <v>0.17466100000000001</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="2"/>
+        <v>0.6369382088902763</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>512</v>
+      </c>
+      <c r="B50">
+        <v>2048000</v>
+      </c>
+      <c r="C50">
+        <v>0.164301</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="2"/>
+        <v>0.77585303585303578</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>1024</v>
+      </c>
+      <c r="B51">
+        <v>4096000</v>
+      </c>
+      <c r="C51">
+        <v>0.16223299999999999</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79956812684055534</v>
       </c>
     </row>
   </sheetData>
@@ -5769,10 +7074,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E2"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6181,7 +7486,7 @@
         <v>1.0006299999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -6192,7 +7497,7 @@
         <v>0.93904100000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>64</v>
       </c>
@@ -6203,7 +7508,7 @@
         <v>0.94540500000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>128</v>
       </c>
@@ -6214,7 +7519,7 @@
         <v>1.09572</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>256</v>
       </c>
@@ -6225,7 +7530,7 @@
         <v>1.3773</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>512</v>
       </c>
@@ -6235,6 +7540,182 @@
       <c r="C37" s="1">
         <v>1.7152499999999999</v>
       </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>4000</v>
+      </c>
+      <c r="C41">
+        <v>0.52639999999999998</v>
+      </c>
+      <c r="E41" s="2">
+        <f>(C28-C41)/C2</f>
+        <v>6.0003750234389284E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>8000</v>
+      </c>
+      <c r="C42">
+        <v>0.49049999999999999</v>
+      </c>
+      <c r="E42" s="2">
+        <f>(C29-C42)/C3</f>
+        <v>7.9411013703293939E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>16000</v>
+      </c>
+      <c r="C43">
+        <v>0.60807500000000003</v>
+      </c>
+      <c r="E43" s="2">
+        <f>(C30-C43)/C4</f>
+        <v>0.13893831553973895</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>32000</v>
+      </c>
+      <c r="C44">
+        <v>0.79262500000000002</v>
+      </c>
+      <c r="E44" s="2">
+        <f>(C31-C44)/C5</f>
+        <v>0.1313237108217897</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>16</v>
+      </c>
+      <c r="B45">
+        <v>64000</v>
+      </c>
+      <c r="C45">
+        <v>0.66485000000000005</v>
+      </c>
+      <c r="E45" s="2">
+        <f>(C32-C45)/C6</f>
+        <v>0.23270706132660618</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>32</v>
+      </c>
+      <c r="B46">
+        <v>128000</v>
+      </c>
+      <c r="C46">
+        <v>0.56922499999999998</v>
+      </c>
+      <c r="E46" s="2">
+        <f>(C33-C46)/C7</f>
+        <v>0.25302307760726334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>64</v>
+      </c>
+      <c r="B47">
+        <v>256000</v>
+      </c>
+      <c r="C47">
+        <v>0.52484399999999998</v>
+      </c>
+      <c r="E47" s="2">
+        <f>(C34-C47)/C8</f>
+        <v>0.28001930887542453</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>128</v>
+      </c>
+      <c r="B48">
+        <v>512000</v>
+      </c>
+      <c r="C48">
+        <v>0.47965600000000003</v>
+      </c>
+      <c r="E48" s="2">
+        <f>(C35-C48)/C9</f>
+        <v>0.36479825672971017</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>256</v>
+      </c>
+      <c r="B49">
+        <v>1024000</v>
+      </c>
+      <c r="C49">
+        <v>0.39314399999999999</v>
+      </c>
+      <c r="E49" s="2">
+        <f>(C36-C49)/C10</f>
+        <v>0.4831470272021679</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>512</v>
+      </c>
+      <c r="B50">
+        <v>2048000</v>
+      </c>
+      <c r="C50">
+        <v>0.35161199999999998</v>
+      </c>
+      <c r="E50" s="2">
+        <f>(C37-C50)/C11</f>
+        <v>0.5660621256211108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>1022</v>
+      </c>
+      <c r="B51">
+        <v>4088000</v>
+      </c>
+      <c r="C51">
+        <v>4.0498999999999998E-4</v>
+      </c>
+      <c r="E51" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6251,8 +7732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/latex/performance_content/scaling/ItascaWeakScaling.xlsx
+++ b/latex/performance_content/scaling/ItascaWeakScaling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14420" tabRatio="500" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14420" tabRatio="500" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="n50_weak_alltoallv" sheetId="6" r:id="rId1"/>
@@ -1605,9 +1605,6 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.0200956937799042</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0233333333333333</c:v>
                 </c:pt>
@@ -1697,9 +1694,6 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.0133418043202034</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>0.112167832167832</c:v>
                 </c:pt>
@@ -1789,9 +1783,6 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.00985027580772262</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>0.113285986488827</c:v>
                 </c:pt>
@@ -1881,9 +1872,6 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.00600037502343893</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0794110137032939</c:v>
                 </c:pt>
@@ -3539,7 +3527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -4809,8 +4797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5526,10 +5514,7 @@
       <c r="C41">
         <v>0.24790000000000001</v>
       </c>
-      <c r="E41" s="2">
-        <f>($C28-$C41)/$C2</f>
-        <v>9.8502758077226235E-3</v>
-      </c>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
@@ -5697,7 +5682,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6216,10 +6201,7 @@
       <c r="C41">
         <v>9.9900000000000003E-2</v>
       </c>
-      <c r="E41" s="2">
-        <f>($C28-$C41)/$C2</f>
-        <v>2.0095693779904219E-2</v>
-      </c>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
@@ -6387,7 +6369,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6906,10 +6888,7 @@
       <c r="C41">
         <v>0.15279999999999999</v>
       </c>
-      <c r="E41" s="2">
-        <f>($C28-$C41)/$C2</f>
-        <v>1.334180432020342E-2</v>
-      </c>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
@@ -7565,10 +7544,7 @@
       <c r="C41">
         <v>0.52639999999999998</v>
       </c>
-      <c r="E41" s="2">
-        <f>(C28-C41)/C2</f>
-        <v>6.0003750234389284E-3</v>
-      </c>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
@@ -7732,7 +7708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>

--- a/latex/performance_content/scaling/ItascaWeakScaling.xlsx
+++ b/latex/performance_content/scaling/ItascaWeakScaling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14420" tabRatio="500" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14420" tabRatio="500" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="n50_weak_alltoallv" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="17">
   <si>
     <t>p</t>
   </si>
@@ -77,12 +77,25 @@
   <si>
     <t>Visible Communication</t>
   </si>
+  <si>
+    <t>GFLOP/sec</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,154 +151,167 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="140">
+  <cellStyleXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="140" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="140">
+  <cellStyles count="151">
+    <cellStyle name="Comma" xfId="140" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -355,6 +381,11 @@
     <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -424,6 +455,11 @@
     <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -471,7 +507,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -853,11 +888,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2126945352"/>
-        <c:axId val="2126950936"/>
+        <c:axId val="-2100623016"/>
+        <c:axId val="2092606728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2126945352"/>
+        <c:axId val="-2100623016"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -880,19 +915,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126950936"/>
+        <c:crossAx val="2092606728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2126950936"/>
+        <c:axId val="2092606728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0"/>
@@ -916,21 +950,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126945352"/>
+        <c:crossAx val="-2100623016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -994,7 +1026,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1376,11 +1407,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2123582872"/>
-        <c:axId val="2123577288"/>
+        <c:axId val="2092436392"/>
+        <c:axId val="-2092918680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2123582872"/>
+        <c:axId val="2092436392"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1403,19 +1434,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123577288"/>
+        <c:crossAx val="-2092918680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2123577288"/>
+        <c:axId val="-2092918680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1455,14 +1485,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123582872"/>
+        <c:crossAx val="2092436392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -1470,7 +1499,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1542,7 +1570,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1912,11 +1939,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2147022200"/>
-        <c:axId val="2132338120"/>
+        <c:axId val="-2101161416"/>
+        <c:axId val="-2100541176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2147022200"/>
+        <c:axId val="-2101161416"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -1939,19 +1966,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132338120"/>
+        <c:crossAx val="-2100541176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2132338120"/>
+        <c:axId val="-2100541176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1980,14 +2006,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147022200"/>
+        <c:crossAx val="-2101161416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -1995,7 +2020,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2059,7 +2083,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2536,11 +2559,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2126864840"/>
-        <c:axId val="2120509064"/>
+        <c:axId val="2144297720"/>
+        <c:axId val="-2092121144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2126864840"/>
+        <c:axId val="2144297720"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -2563,19 +2586,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120509064"/>
+        <c:crossAx val="-2092121144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2120509064"/>
+        <c:axId val="-2092121144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0"/>
@@ -2599,21 +2621,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126864840"/>
+        <c:crossAx val="2144297720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4797,8 +4817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4823,7 +4843,9 @@
       <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
@@ -4846,7 +4868,10 @@
         <f>D2*100%</f>
         <v>1</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="3">
+        <f>((4000*A2*50*2)/(C2*0.001))*0.000000001</f>
+        <v>1.5760441292356184</v>
+      </c>
       <c r="H2">
         <f>n50_weak_overlap_cpu!C2/n50_weak_no_decode!C2</f>
         <v>1.0147940823670534</v>
@@ -4874,6 +4899,10 @@
         <f t="shared" ref="E3:E12" si="1">D3*100%</f>
         <v>0.87926554650961375</v>
       </c>
+      <c r="F3" s="3">
+        <f>((4000*A3*50*2)/(C3*0.001))*0.000000001</f>
+        <v>2.7715226052312487</v>
+      </c>
       <c r="H3">
         <f>n50_weak_overlap_cpu!C3/n50_weak_no_decode!C3</f>
         <v>1.010148731408574</v>
@@ -4901,6 +4930,10 @@
         <f t="shared" si="1"/>
         <v>0.68175407964542345</v>
       </c>
+      <c r="F4" s="3">
+        <f>((4000*A4*50*2)/(C4*0.001))*0.000000001</f>
+        <v>4.2978980592304072</v>
+      </c>
       <c r="H4">
         <f>n50_weak_overlap_cpu!C4/n50_weak_no_decode!C4</f>
         <v>1.0242107435174359</v>
@@ -4928,6 +4961,10 @@
         <f t="shared" si="1"/>
         <v>0.37325615254970135</v>
       </c>
+      <c r="F5" s="3">
+        <f t="shared" ref="F5:F12" si="2">((4000*A5*50*2)/(C5*0.001))*0.000000001</f>
+        <v>4.7061453434162503</v>
+      </c>
       <c r="G5">
         <f>n50_weak_alltoallv!C12/n50_weak_overlap_cpu!C12</f>
         <v>2.7952038469361677</v>
@@ -4959,6 +4996,10 @@
         <f t="shared" si="1"/>
         <v>0.34118039274729534</v>
       </c>
+      <c r="F6" s="3">
+        <f t="shared" si="2"/>
+        <v>8.603445679994838</v>
+      </c>
       <c r="H6">
         <f>n50_weak_overlap_cpu!C6/n50_weak_no_decode!C6</f>
         <v>0.95434491163924429</v>
@@ -4986,6 +5027,10 @@
         <f t="shared" si="1"/>
         <v>0.31738409478004459</v>
       </c>
+      <c r="F7" s="3">
+        <f t="shared" si="2"/>
+        <v>16.006762857307212</v>
+      </c>
       <c r="H7">
         <f>n50_weak_overlap_cpu!C7/n50_weak_no_decode!C7</f>
         <v>0.97499305023824268</v>
@@ -5013,6 +5058,10 @@
         <f t="shared" si="1"/>
         <v>0.31597268043932408</v>
       </c>
+      <c r="F8" s="3">
+        <f t="shared" si="2"/>
+        <v>31.871160832335288</v>
+      </c>
       <c r="H8">
         <f>n50_weak_overlap_cpu!C8/n50_weak_no_decode!C8</f>
         <v>0.90396356388755394</v>
@@ -5040,6 +5089,10 @@
         <f t="shared" si="1"/>
         <v>0.25095169822514463</v>
       </c>
+      <c r="F9" s="3">
+        <f t="shared" si="2"/>
+        <v>50.625401690809312</v>
+      </c>
       <c r="H9">
         <f>n50_weak_overlap_cpu!C9/n50_weak_no_decode!C9</f>
         <v>0.91690843155031732</v>
@@ -5067,6 +5120,10 @@
         <f t="shared" si="1"/>
         <v>0.20422614545278983</v>
       </c>
+      <c r="F10" s="3">
+        <f t="shared" si="2"/>
+        <v>82.398570899785966</v>
+      </c>
       <c r="H10">
         <f>n50_weak_overlap_cpu!C10/n50_weak_no_decode!C10</f>
         <v>0.84022852506676582</v>
@@ -5094,6 +5151,10 @@
         <f t="shared" si="1"/>
         <v>0.17550410754294252</v>
       </c>
+      <c r="F11" s="3">
+        <f t="shared" si="2"/>
+        <v>141.62033579509307</v>
+      </c>
       <c r="H11">
         <f>n50_weak_overlap_cpu!C11/n50_weak_no_decode!C11</f>
         <v>0.72305638471807643</v>
@@ -5121,6 +5182,10 @@
         <f t="shared" si="1"/>
         <v>0.13236881770341666</v>
       </c>
+      <c r="F12" s="3">
+        <f t="shared" si="2"/>
+        <v>213.62595638817757</v>
+      </c>
       <c r="H12">
         <f>n50_weak_overlap_cpu!C12/n50_weak_no_decode!C12</f>
         <v>0.84854399008674108</v>
@@ -5202,7 +5267,7 @@
         <v>0.62112500000000004</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19:G29" si="2">C28-C15</f>
+        <f t="shared" ref="G19:G29" si="3">C28-C15</f>
         <v>-1.1999999999999789E-3</v>
       </c>
       <c r="H19" s="2">
@@ -5221,11 +5286,11 @@
         <v>0.65329400000000004</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.149999999999987E-3</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" ref="H20:H29" si="3">G20/C3</f>
+        <f t="shared" ref="H20:H29" si="4">G20/C3</f>
         <v>1.4377273514637058E-2</v>
       </c>
     </row>
@@ -5240,11 +5305,11 @@
         <v>0.64293800000000001</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.000000000000119E-4</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4175676583171363E-3</v>
       </c>
     </row>
@@ -5259,11 +5324,11 @@
         <v>0.81588099999999997</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.1738000000000035E-2</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3.1969433585994564E-2</v>
       </c>
     </row>
@@ -5278,11 +5343,11 @@
         <v>0.90481900000000004</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.7681000000000084E-2</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6.4097014604349162E-2</v>
       </c>
     </row>
@@ -5297,11 +5362,11 @@
         <v>0.95230499999999996</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.9219000000000013E-2</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6.1549754771390928E-2</v>
       </c>
     </row>
@@ -5316,21 +5381,21 @@
         <v>1.41822</v>
       </c>
       <c r="G25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5.4985000000000062E-2</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6.8454522592420214E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="G26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.6544000000000021E-2</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3.6133880456815169E-2</v>
       </c>
     </row>
@@ -5345,11 +5410,11 @@
         <v>4</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.7205999999999997E-2</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.2125625633680417E-2</v>
       </c>
     </row>
@@ -5364,11 +5429,11 @@
         <v>0.25040000000000001</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.21942499999999998</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15173360440350731</v>
       </c>
     </row>
@@ -5383,11 +5448,11 @@
         <v>0.26874999999999999</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.22294999999999998</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.11627906976744184</v>
       </c>
     </row>
@@ -5527,7 +5592,7 @@
         <v>0.23605000000000001</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" ref="E42:E51" si="4">($C29-$C42)/$C3</f>
+        <f t="shared" ref="E42:E51" si="5">($C29-$C42)/$C3</f>
         <v>0.11328598648882722</v>
       </c>
     </row>
@@ -5542,7 +5607,7 @@
         <v>0.26937499999999998</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17708683097172792</v>
       </c>
     </row>
@@ -5557,7 +5622,7 @@
         <v>0.43513800000000002</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.19714189910612651</v>
       </c>
     </row>
@@ -5572,7 +5637,7 @@
         <v>0.38014999999999999</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.25984287957326907</v>
       </c>
     </row>
@@ -5587,7 +5652,7 @@
         <v>0.34146900000000002</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.32839624741453266</v>
       </c>
     </row>
@@ -5602,7 +5667,7 @@
         <v>0.32421699999999998</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.32834267473737411</v>
       </c>
     </row>
@@ -5617,7 +5682,7 @@
         <v>0.305172</v>
       </c>
       <c r="E48" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.46884362485786324</v>
       </c>
     </row>
@@ -5632,7 +5697,7 @@
         <v>0.26551200000000003</v>
       </c>
       <c r="E49" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.57655905499138993</v>
       </c>
     </row>
@@ -5647,7 +5712,7 @@
         <v>0.247029</v>
       </c>
       <c r="E50" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.63943586977567557</v>
       </c>
     </row>
@@ -5662,7 +5727,7 @@
         <v>0.23777999999999999</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.73193488997950307</v>
       </c>
     </row>
@@ -5679,15 +5744,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5703,8 +5768,11 @@
       <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5722,8 +5790,12 @@
         <f>D2*100%</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="3">
+        <f>((4000*A2*17*2)/(C2*0.001))*0.000000001</f>
+        <v>1.3014354066985649</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5741,8 +5813,12 @@
         <f t="shared" ref="E3:E12" si="1">D3*100%</f>
         <v>0.99523809523809526</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F12" si="2">((4000*A3*17*2)/(C3*0.001))*0.000000001</f>
+        <v>2.5904761904761906</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>4</v>
       </c>
@@ -5760,8 +5836,12 @@
         <f t="shared" si="1"/>
         <v>0.97892271662763464</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="3">
+        <f t="shared" si="2"/>
+        <v>5.0960187353629971</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -5779,8 +5859,12 @@
         <f t="shared" si="1"/>
         <v>0.48610303523665538</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="3">
+        <f t="shared" si="2"/>
+        <v>5.0610536108849873</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>16</v>
       </c>
@@ -5798,8 +5882,12 @@
         <f t="shared" si="1"/>
         <v>0.41867993621641542</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="3">
+        <f t="shared" si="2"/>
+        <v>8.7181582890614369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>32</v>
       </c>
@@ -5817,8 +5905,12 @@
         <f t="shared" si="1"/>
         <v>0.37580195057395205</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="3">
+        <f t="shared" si="2"/>
+        <v>15.650622860266408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>64</v>
       </c>
@@ -5836,8 +5928,12 @@
         <f t="shared" si="1"/>
         <v>0.34055727554179566</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="3">
+        <f t="shared" si="2"/>
+        <v>28.365650969529089</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>128</v>
       </c>
@@ -5855,8 +5951,12 @@
         <f t="shared" si="1"/>
         <v>0.28166356701975687</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="3">
+        <f t="shared" si="2"/>
+        <v>46.920568178755289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>256</v>
       </c>
@@ -5874,8 +5974,12 @@
         <f t="shared" si="1"/>
         <v>0.14408347741681074</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="3">
+        <f t="shared" si="2"/>
+        <v>48.003926791805583</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>512</v>
       </c>
@@ -5893,8 +5997,12 @@
         <f t="shared" si="1"/>
         <v>0.13001975802638716</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="3">
+        <f t="shared" si="2"/>
+        <v>86.636706132951119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>1024</v>
       </c>
@@ -5912,8 +6020,12 @@
         <f t="shared" si="1"/>
         <v>9.8114695609719457E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F12" s="3">
+        <f t="shared" si="2"/>
+        <v>130.7544973147557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -5924,7 +6036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>1</v>
       </c>
@@ -5935,7 +6047,7 @@
         <v>0.1024</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>2</v>
       </c>
@@ -6214,7 +6326,7 @@
         <v>0.10005</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" ref="E42:E51" si="2">($C29-$C42)/$C3</f>
+        <f t="shared" ref="E42:E51" si="3">($C29-$C42)/$C3</f>
         <v>2.3333333333333275E-2</v>
       </c>
     </row>
@@ -6229,7 +6341,7 @@
         <v>0.101775</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.3185011709601789E-2</v>
       </c>
     </row>
@@ -6244,7 +6356,7 @@
         <v>0.12675</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2908477729968601</v>
       </c>
     </row>
@@ -6259,7 +6371,7 @@
         <v>0.121725</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.37753712028334019</v>
       </c>
     </row>
@@ -6274,7 +6386,7 @@
         <v>0.11324099999999999</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.44509335711614262</v>
       </c>
     </row>
@@ -6289,7 +6401,7 @@
         <v>0.10963000000000001</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.49889522568029981</v>
       </c>
     </row>
@@ -6304,7 +6416,7 @@
         <v>0.10671799999999999</v>
       </c>
       <c r="E48" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.58303549769547991</v>
       </c>
     </row>
@@ -6319,7 +6431,7 @@
         <v>9.8450399999999993E-2</v>
       </c>
       <c r="E49" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78831255497922181</v>
       </c>
     </row>
@@ -6334,7 +6446,7 @@
         <v>9.5820500000000003E-2</v>
       </c>
       <c r="E50" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.807230467175299</v>
       </c>
     </row>
@@ -6349,7 +6461,7 @@
         <v>9.4764100000000004E-2</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.8542136740902091</v>
       </c>
     </row>
@@ -6366,15 +6478,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6390,8 +6502,11 @@
       <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6409,8 +6524,12 @@
         <f>D2*100%</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="3">
+        <f>((4000*A2*31*2)/(C2*0.001))*0.000000001</f>
+        <v>1.5756035578144854</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6428,8 +6547,12 @@
         <f t="shared" ref="E3:E12" si="1">D3*100%</f>
         <v>0.88055944055944069</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F12" si="2">((4000*A3*31*2)/(C3*0.001))*0.000000001</f>
+        <v>2.7748251748251751</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>4</v>
       </c>
@@ -6447,8 +6570,12 @@
         <f t="shared" si="1"/>
         <v>0.75292992107151402</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="3">
+        <f t="shared" si="2"/>
+        <v>4.7452762497010283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -6466,8 +6593,12 @@
         <f t="shared" si="1"/>
         <v>0.3905338950669664</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="3">
+        <f t="shared" si="2"/>
+        <v>4.9226127561172888</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>16</v>
       </c>
@@ -6485,8 +6616,12 @@
         <f t="shared" si="1"/>
         <v>0.35039057195584283</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="3">
+        <f t="shared" si="2"/>
+        <v>8.833226108772454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>32</v>
       </c>
@@ -6504,8 +6639,12 @@
         <f t="shared" si="1"/>
         <v>0.3158498850177992</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="3">
+        <f t="shared" si="2"/>
+        <v>15.924934482218898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>64</v>
       </c>
@@ -6523,8 +6662,12 @@
         <f t="shared" si="1"/>
         <v>0.29622547764946777</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="3">
+        <f t="shared" si="2"/>
+        <v>29.870970655986994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>128</v>
       </c>
@@ -6542,8 +6685,12 @@
         <f t="shared" si="1"/>
         <v>0.22923654327604365</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="3">
+        <f t="shared" si="2"/>
+        <v>46.231796885354058</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>256</v>
       </c>
@@ -6561,8 +6708,12 @@
         <f t="shared" si="1"/>
         <v>0.18612064969586894</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="3">
+        <f t="shared" si="2"/>
+        <v>75.072603607949972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>512</v>
       </c>
@@ -6580,8 +6731,12 @@
         <f t="shared" si="1"/>
         <v>0.11647611647611648</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="3">
+        <f t="shared" si="2"/>
+        <v>93.962333962333958</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>1024</v>
       </c>
@@ -6599,8 +6754,12 @@
         <f t="shared" si="1"/>
         <v>0.10346550273453935</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F12" s="3">
+        <f t="shared" si="2"/>
+        <v>166.93310896087505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -6611,7 +6770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>1</v>
       </c>
@@ -6622,7 +6781,7 @@
         <v>0.15540000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>2</v>
       </c>
@@ -6901,7 +7060,7 @@
         <v>0.15154999999999999</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" ref="E42:E51" si="2">($C29-$C42)/$C3</f>
+        <f t="shared" ref="E42:E51" si="3">($C29-$C42)/$C3</f>
         <v>0.11216783216783224</v>
       </c>
     </row>
@@ -6916,7 +7075,7 @@
         <v>0.16972499999999999</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13298254006218616</v>
       </c>
     </row>
@@ -6931,7 +7090,7 @@
         <v>0.25805</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.23211210853567163</v>
       </c>
     </row>
@@ -6946,7 +7105,7 @@
         <v>0.22223100000000001</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.31410489010781079</v>
       </c>
     </row>
@@ -6961,7 +7120,7 @@
         <v>0.210925</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.37167946253346129</v>
       </c>
     </row>
@@ -6976,7 +7135,7 @@
         <v>0.20080300000000001</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.41239517306794743</v>
       </c>
     </row>
@@ -6991,7 +7150,7 @@
         <v>0.19050500000000001</v>
       </c>
       <c r="E48" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.55061627346434083</v>
       </c>
     </row>
@@ -7006,7 +7165,7 @@
         <v>0.17466100000000001</v>
       </c>
       <c r="E49" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.6369382088902763</v>
       </c>
     </row>
@@ -7021,7 +7180,7 @@
         <v>0.164301</v>
       </c>
       <c r="E50" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.77585303585303578</v>
       </c>
     </row>
@@ -7036,7 +7195,7 @@
         <v>0.16223299999999999</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.79956812684055534</v>
       </c>
     </row>
@@ -7557,7 +7716,7 @@
         <v>0.49049999999999999</v>
       </c>
       <c r="E42" s="2">
-        <f>(C29-C42)/C3</f>
+        <f t="shared" ref="E42:E50" si="2">(C29-C42)/C3</f>
         <v>7.9411013703293939E-2</v>
       </c>
     </row>
@@ -7572,7 +7731,7 @@
         <v>0.60807500000000003</v>
       </c>
       <c r="E43" s="2">
-        <f>(C30-C43)/C4</f>
+        <f t="shared" si="2"/>
         <v>0.13893831553973895</v>
       </c>
     </row>
@@ -7587,7 +7746,7 @@
         <v>0.79262500000000002</v>
       </c>
       <c r="E44" s="2">
-        <f>(C31-C44)/C5</f>
+        <f t="shared" si="2"/>
         <v>0.1313237108217897</v>
       </c>
     </row>
@@ -7602,7 +7761,7 @@
         <v>0.66485000000000005</v>
       </c>
       <c r="E45" s="2">
-        <f>(C32-C45)/C6</f>
+        <f t="shared" si="2"/>
         <v>0.23270706132660618</v>
       </c>
     </row>
@@ -7617,7 +7776,7 @@
         <v>0.56922499999999998</v>
       </c>
       <c r="E46" s="2">
-        <f>(C33-C46)/C7</f>
+        <f t="shared" si="2"/>
         <v>0.25302307760726334</v>
       </c>
     </row>
@@ -7632,7 +7791,7 @@
         <v>0.52484399999999998</v>
       </c>
       <c r="E47" s="2">
-        <f>(C34-C47)/C8</f>
+        <f t="shared" si="2"/>
         <v>0.28001930887542453</v>
       </c>
     </row>
@@ -7647,7 +7806,7 @@
         <v>0.47965600000000003</v>
       </c>
       <c r="E48" s="2">
-        <f>(C35-C48)/C9</f>
+        <f t="shared" si="2"/>
         <v>0.36479825672971017</v>
       </c>
     </row>
@@ -7662,7 +7821,7 @@
         <v>0.39314399999999999</v>
       </c>
       <c r="E49" s="2">
-        <f>(C36-C49)/C10</f>
+        <f t="shared" si="2"/>
         <v>0.4831470272021679</v>
       </c>
     </row>
@@ -7677,7 +7836,7 @@
         <v>0.35161199999999998</v>
       </c>
       <c r="E50" s="2">
-        <f>(C37-C50)/C11</f>
+        <f t="shared" si="2"/>
         <v>0.5660621256211108</v>
       </c>
     </row>
